--- a/src/testcases/RadioButton測試_test_cases.xlsx
+++ b/src/testcases/RadioButton測試_test_cases.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>單選按鈕選擇</t>
+          <t>預設選取</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1. 點擊 'Component 4' 對應的 Radio button。2. 點擊 'Component 2' 對應的 Radio button。</t>
+          <t>1. 頁面載入後，直接觀察單選按鈕群組。</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>只有被點擊的 Radio button 呈現選取狀態，其他 Radio button 呈現未選取狀態。</t>
+          <t>應顯示正確的預設選取選項（預期為第一個選項）。</t>
         </is>
       </c>
     </row>
@@ -525,17 +525,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>單選按鈕取消選擇</t>
+          <t>選項選取</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,17 +545,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面，且其中一個 Radio button 已被選取。</t>
+          <t>頁面載入完成，包含單選按鈕群組，且沒有預選選項。</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1. 點擊已選取的 Radio button。</t>
+          <t>1. 點擊任一未選取的單選按鈕。</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>該 Radio button 呈現未選取狀態。</t>
+          <t>被點擊的選項應立即顯示為已選取狀態，原先選取的選項應變更為未選取狀態，同一時間只能有一個選項被選取。</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>所有單選按鈕</t>
+          <t>重複點擊</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -587,17 +587,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組，且已選取一個選項。</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1. 依序點擊 'Component 4' 到 'Component 10' 的 Radio button。</t>
+          <t>1. 點擊目前已選取的單選按鈕。</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>每次點擊，只有當前點擊的 Radio button 呈現選取狀態，其他 Radio button 呈現未選取狀態。</t>
+          <t>選項應維持選取狀態，不會變成未選取。</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>快速點擊</t>
+          <t>選項內容驗證</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組。</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1. 快速且連續地點擊 'Component 5' 的 Radio button 數次。</t>
+          <t>1. 檢查所有單選按鈕的標籤文字。</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Radio button 能夠正確地在選取和未選取狀態之間切換，不會出現狀態錯誤。</t>
+          <t>所有選項的文字、排列順序都應與設計稿相符。</t>
         </is>
       </c>
     </row>
@@ -651,37 +651,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>初始狀態</t>
+          <t>視覺回饋</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>功能性測試</t>
+          <t>視覺測試</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組。</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1. 檢查頁面載入後，是否有預設的 Radio button 被選取。</t>
+          <t>1. 觀察選取前後的視覺變化。</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>頁面載入後，所有 Radio button 均未被選取。</t>
+          <t>已選取與未選取狀態應有明顯的視覺差異。</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>元件名稱顯示</t>
+          <t>標籤點擊</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -708,22 +708,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UI測試</t>
+          <t>功能性測試</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組。</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1. 檢查 'Component 4' 到 'Component 10' 的 Radio button 旁是否顯示正確的元件名稱。</t>
+          <t>1. 點擊單選按鈕旁邊的文字標籤。</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>每個 Radio button 旁正確顯示對應的元件名稱 (Component 4, Component 2, Component 3, 等等)。</t>
+          <t>點擊標籤應與點擊單選按鈕本身有相同效果，能正確選取該選項。</t>
         </is>
       </c>
     </row>
@@ -735,37 +735,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>文字顯示</t>
+          <t>鍵盤操作</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UI測試</t>
+          <t>可用性測試</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組。</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1. 檢查頁面上的文字 "這是一個 Radio Button" 是否正確顯示。</t>
+          <t>1. 使用 Tab 鍵移動焦點至單選按鈕群組。2. 使用方向鍵切換選項。3. 使用 Space 鍵選取當前焦點的選項。</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>文字 "這是一個 Radio Button" 顯示正確。</t>
+          <t>Tab 鍵能正確將焦點移至群組，方向鍵能在群組內切換選項，Space 鍵能選取當前焦點的選項。</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>點擊範圍</t>
+          <t>多個群組</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -797,17 +797,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含多個單選按鈕群組。</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1. 嘗試點擊 Radio button 的不同區域 (圓圈內部、圓圈外部)。</t>
+          <t>1. 在不同群組中分別選取選項。</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>只有點擊圓圈內部才能選取 Radio button，點擊圓圈外部則無反應。</t>
+          <t>每個群組應獨立運作，一個群組的選取不會影響其他群組的狀態。</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>元件結構</t>
+          <t>禁用狀態</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -834,22 +834,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>結構性測試</t>
+          <t>功能性測試</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組，且部分選項被禁用。</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1. 檢查每個 Radio button 的元件結構是否正確 (INSTANCE 包含 TEXT)。</t>
+          <t>1. 嘗試點擊禁用的單選按鈕。</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>每個 Radio button 的元件結構正確，INSTANCE 包含 TEXT。</t>
+          <t>禁用的選項應呈現灰色或不可點擊狀態，點擊時無反應。</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>單選按鈕功能測試</t>
+          <t>單選按鈕</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>頁面名稱</t>
+          <t>邊界值測試</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -876,22 +876,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UI測試</t>
+          <t>功能性測試</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>已呈現包含多個單選按鈕的 Radio Button 範例頁面。</t>
+          <t>頁面載入完成，包含單選按鈕群組，且選項數量較多。</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1. 檢查頁面名稱是否為 "Page 1"。</t>
+          <t>1. 快速連續點擊多個單選按鈕。</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>頁面名稱顯示為 "Page 1"。</t>
+          <t>系統應能正確處理快速點擊，確保只有一個選項被選取。</t>
         </is>
       </c>
     </row>
